--- a/Facters_of_infections.xlsx
+++ b/Facters_of_infections.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1_simpleF" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2_multiF" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2_multiF" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t xml:space="preserve">Inputs</t>
   </si>
@@ -32,139 +33,205 @@
     <t xml:space="preserve">Types</t>
   </si>
   <si>
+    <t xml:space="preserve">Bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The age of the person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health_condi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vital underline health issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of job the person having require contact other people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inplem_gov_reac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The person’s attitude towards government policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultra high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gov strong act, person strict self-isolation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov act quick but the person obeyed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov act quick but the person ignored </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov attemped quick but the person ignored </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gov act too late and person ingnored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoking piling or not. (reducing number of visits to supermarket)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona_affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How COVID-19 affect the person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultra high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not infected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">infected with very mild symptom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infected with mild symptom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">infected with hospitalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infected with ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infected with fatal inpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub type 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub type 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub type 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anti_cov_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how does gov and the person react to covid 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact index 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact index 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact index 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact index 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact index 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points threhold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 – 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 – 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The age of the person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_condi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vital underline health issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job_own</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of job the person having require contact other people </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inplem_gov_reac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The person’s attitude towards government policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ultra high </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gov strong act, person strict self-isolation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov act quick but the person obeyed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov act quick but the person ignored </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov attemped quick but the person ignored </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gov act too late and person ingnored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stoking piling or not. (reducing number of visits to supermarket)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corona_affect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How COVID-19 affect the person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very high </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ultra high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not infected </t>
-  </si>
-  <si>
-    <t xml:space="preserve">infected with very mild symptom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infected with mild symptom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">infected with hospitalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infected with ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infected with fatal inpact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facters</t>
   </si>
   <si>
     <t xml:space="preserve">Source of info</t>
@@ -204,14 +271,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -242,7 +311,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +352,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC578"/>
         <bgColor rgb="FFFEDCC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -397,7 +472,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,10 +529,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,10 +545,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,7 +561,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,7 +629,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -609,8 +692,8 @@
   </sheetPr>
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -765,29 +848,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="true" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="0"/>
       <c r="J6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
+    <row r="7" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -799,7 +882,7 @@
       <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="0"/>
       <c r="I7" s="1" t="s">
         <v>16</v>
@@ -833,28 +916,28 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="12" t="n">
@@ -864,23 +947,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="17" t="s">
+    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -903,9 +986,432 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B1:M17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="37.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="17.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="E10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="19"/>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +1427,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -936,10 +1442,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -949,23 +1455,23 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>50</v>
+      <c r="I2" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -975,7 +1481,7 @@
       <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -984,7 +1490,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -999,7 +1505,7 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1008,7 +1514,7 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1018,12 +1524,12 @@
     </row>
     <row r="5" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1032,7 +1538,7 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1042,12 +1548,12 @@
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1056,7 +1562,7 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1575,7 @@
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1078,20 +1584,20 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="27" t="s">
-        <v>55</v>
+      <c r="B8" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1100,52 +1606,52 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="32"/>
+      <c r="B10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="34"/>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1153,7 +1659,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Facters_of_infections.xlsx
+++ b/Facters_of_infections.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\github\tmcovid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5ADDBE-7921-47DC-8D53-BF2C34F4BDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="5832" yWindow="2244" windowWidth="22344" windowHeight="12708" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1_simpleF" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2_multiF" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1_simpleF" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2_multiF" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,75 +28,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">Inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The age of the person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_condi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vital underline health issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job_own</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>number of sub types</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>The age of the person</t>
+  </si>
+  <si>
+    <t>&lt;19</t>
+  </si>
+  <si>
+    <t>20-44</t>
+  </si>
+  <si>
+    <t>45-64</t>
+  </si>
+  <si>
+    <t>65-80</t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>health_condi</t>
+  </si>
+  <si>
+    <t>Vital underline health issue</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>job_own</t>
   </si>
   <si>
     <t xml:space="preserve">Type of job the person having require contact other people </t>
   </si>
   <si>
-    <t xml:space="preserve">inplem_gov_reac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The person’s attitude towards government policy</t>
+    <t>inplem_gov_reac</t>
+  </si>
+  <si>
+    <t>The person’s attitude towards government policy</t>
   </si>
   <si>
     <t xml:space="preserve">ultra high </t>
@@ -108,194 +114,184 @@
     <t xml:space="preserve">gov attemped quick but the person ignored </t>
   </si>
   <si>
-    <t xml:space="preserve">gov act too late and person ingnored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stocking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stoking piling or not. (reducing number of visits to supermarket)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corona_affect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How COVID-19 affect the person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">very low</t>
+    <t>gov act too late and person ingnored</t>
+  </si>
+  <si>
+    <t>stocking</t>
+  </si>
+  <si>
+    <t>stoking piling or not. (reducing number of visits to supermarket)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>13bits</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Corona_affect</t>
+  </si>
+  <si>
+    <t>How COVID-19 affect the person</t>
+  </si>
+  <si>
+    <t>very low</t>
   </si>
   <si>
     <t xml:space="preserve">very high </t>
   </si>
   <si>
-    <t xml:space="preserve">ultra high</t>
+    <t>ultra high</t>
   </si>
   <si>
     <t xml:space="preserve">not infected </t>
   </si>
   <si>
-    <t xml:space="preserve">infected with very mild symptom</t>
+    <t>infected with very mild symptom</t>
   </si>
   <si>
     <t xml:space="preserve">infected with mild symptom </t>
   </si>
   <si>
-    <t xml:space="preserve">infected with hospitalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infected with ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infected with fatal inpact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub type 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub type 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub type 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anti_cov_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how does gov and the person react to covid 19</t>
+    <t>infected with hospitalization</t>
+  </si>
+  <si>
+    <t>infected with ICU</t>
+  </si>
+  <si>
+    <t>Infected with fatal inpact</t>
+  </si>
+  <si>
+    <t>3bits</t>
+  </si>
+  <si>
+    <t>sub type 1</t>
+  </si>
+  <si>
+    <t>sub type 2</t>
+  </si>
+  <si>
+    <t>sub type 3</t>
+  </si>
+  <si>
+    <t>sub type 4</t>
+  </si>
+  <si>
+    <t>sub type 5</t>
+  </si>
+  <si>
+    <t>&lt;40</t>
+  </si>
+  <si>
+    <t>sub points</t>
+  </si>
+  <si>
+    <t>anti_cov_index</t>
+  </si>
+  <si>
+    <t>how does gov and the person react to covid 19</t>
   </si>
   <si>
     <t xml:space="preserve">low </t>
   </si>
   <si>
-    <t xml:space="preserve">Impact index 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact index 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact index 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact index 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact index 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points threhold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 – 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 – 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 - 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.forbes.com/sites/niallmccarthy/2020/03/19/how-the-coronavirus-is-impacting-different-us-age-groups-infographic/#4a610e891fd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">job_household</t>
+    <t>Impact index 1</t>
+  </si>
+  <si>
+    <t>Impact index 2</t>
+  </si>
+  <si>
+    <t>Impact index 3</t>
+  </si>
+  <si>
+    <t>Impact index 4</t>
+  </si>
+  <si>
+    <t>Impact index 5</t>
+  </si>
+  <si>
+    <t>Points threhold</t>
+  </si>
+  <si>
+    <t>&lt;7</t>
+  </si>
+  <si>
+    <t>8 – 12</t>
+  </si>
+  <si>
+    <t>13 – 18</t>
+  </si>
+  <si>
+    <t>19 - 22</t>
+  </si>
+  <si>
+    <t>&gt;23</t>
+  </si>
+  <si>
+    <t>facters</t>
+  </si>
+  <si>
+    <t>Biased</t>
+  </si>
+  <si>
+    <t>Source of info</t>
+  </si>
+  <si>
+    <t>20-64</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/niallmccarthy/2020/03/19/how-the-coronavirus-is-impacting-different-us-age-groups-infographic/#4a610e891fd4</t>
+  </si>
+  <si>
+    <t>job_household</t>
   </si>
   <si>
     <t xml:space="preserve">Type of job the household member having require contact other people </t>
   </si>
   <si>
-    <t xml:space="preserve">gov_reac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relax policy or hardcore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ranking of number of Chinese tourist per year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social_habit</t>
+    <t>gov_reac</t>
+  </si>
+  <si>
+    <t>Relax policy or hardcore</t>
+  </si>
+  <si>
+    <t>cn_tourist</t>
+  </si>
+  <si>
+    <t>The ranking of number of Chinese tourist per year</t>
+  </si>
+  <si>
+    <t>social_habit</t>
   </si>
   <si>
     <t xml:space="preserve">“Mind own business” or “Hugging and kissing” </t>
+  </si>
+  <si>
+    <t>Points threshold</t>
+  </si>
+  <si>
+    <t>Covid_impact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -308,6 +304,20 @@
       <color rgb="FF0000FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -361,267 +371,453 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="20">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -680,32 +876,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="17.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="9" width="17.33203125" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:11" ht="28.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -754,14 +1258,14 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="n">
+      <c r="K2" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
@@ -783,14 +1287,14 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="11">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
@@ -809,14 +1313,14 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
@@ -841,14 +1345,14 @@
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>5</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16" t="s">
@@ -866,10 +1370,10 @@
       <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:11" ht="69" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -883,23 +1387,23 @@
         <v>32</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="0"/>
+      <c r="H7"/>
       <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>2</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
@@ -915,7 +1419,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="31.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:11" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>35</v>
       </c>
@@ -940,14 +1444,14 @@
       <c r="I10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="12">
         <v>6</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="s">
         <v>40</v>
       </c>
@@ -971,10 +1475,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -982,422 +1485,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="37.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="17.66"/>
+    <col min="1" max="1025" width="17.6640625" style="32" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12" t="n">
+      <c r="L2" s="40"/>
+      <c r="M2" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="42">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="43">
         <v>3</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="43">
         <v>6</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="43">
         <v>12</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12" t="n">
+      <c r="I4" s="39"/>
+      <c r="K4" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="43">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="43">
         <v>5</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="45">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="I5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="G6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="K6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="n">
+      <c r="L6" s="40"/>
+      <c r="M6" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="22" t="s">
+    <row r="7" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="43">
         <v>3</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="43">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12" t="n">
+      <c r="L8" s="40"/>
+      <c r="M8" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="42">
         <v>1</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="43">
         <v>2</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="43">
         <v>3</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="45">
         <v>6</v>
       </c>
-      <c r="I9" s="23" t="n">
+      <c r="I9" s="43">
         <v>12</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="E10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="18" t="s">
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="19"/>
-      <c r="K11" s="1" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="52"/>
+      <c r="K11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12" t="n">
+      <c r="L11" s="40"/>
+      <c r="M11" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="22" t="s">
+    <row r="12" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="42">
         <v>3</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="42">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12" t="n">
+      <c r="L15" s="41"/>
+      <c r="M15" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="22" t="s">
+    <row r="16" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="16" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:13" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="E17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="L17" s="39"/>
+      <c r="M17" s="39" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1405,27 +1905,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="59.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.5546875" style="1"/>
+    <col min="9" max="9" width="59.6640625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1448,7 +1945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1470,11 +1967,11 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1995,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +2019,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
@@ -1546,7 +2043,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>75</v>
       </c>
@@ -1562,13 +2059,13 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1590,8 +2087,8 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1612,8 +2109,8 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1631,38 +2128,321 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="34"/>
+      <c r="F10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="29"/>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" location="4a610e891fd4" display="https://www.forbes.com/sites/niallmccarthy/2020/03/19/how-the-coronavirus-is-impacting-different-us-age-groups-infographic/#4a610e891fd4"/>
+    <hyperlink ref="I2" r:id="rId1" location="4a610e891fd4" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F27BA62-CC10-40F8-8407-76B44F1A9F7E}">
+  <dimension ref="B1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="79"/>
+    <col min="2" max="2" width="19.77734375" style="79" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" style="79"/>
+    <col min="5" max="5" width="15.77734375" style="79" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="79"/>
+    <col min="7" max="8" width="15.5546875" style="79" customWidth="1"/>
+    <col min="9" max="16384" width="16.5546875" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68"/>
+      <c r="C4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="58">
+        <v>3</v>
+      </c>
+      <c r="F4" s="58">
+        <v>6</v>
+      </c>
+      <c r="G4" s="58">
+        <v>12</v>
+      </c>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="69"/>
+    </row>
+    <row r="6" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="68"/>
+      <c r="C6" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="58">
+        <v>1</v>
+      </c>
+      <c r="E6" s="58">
+        <v>3</v>
+      </c>
+      <c r="F6" s="58">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58">
+        <v>10</v>
+      </c>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68"/>
+      <c r="C8" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="58">
+        <v>1</v>
+      </c>
+      <c r="E8" s="58">
+        <v>3</v>
+      </c>
+      <c r="F8" s="58">
+        <v>6</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="68"/>
+      <c r="C10" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58">
+        <v>2</v>
+      </c>
+      <c r="F10" s="58">
+        <v>3</v>
+      </c>
+      <c r="G10" s="58">
+        <v>6</v>
+      </c>
+      <c r="H10" s="71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="72"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="2:12" s="56" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="72"/>
+      <c r="C13" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="58">
+        <v>3</v>
+      </c>
+      <c r="E13" s="58">
+        <v>1</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="69"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="56" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="2:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Facters_of_infections.xlsx
+++ b/Facters_of_infections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\github\tmcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5ADDBE-7921-47DC-8D53-BF2C34F4BDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60974A49-C067-4D56-B328-1170A45FFC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="2244" windowWidth="22344" windowHeight="12708" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
   <si>
     <t>Inputs</t>
   </si>
@@ -371,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -576,6 +576,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,9 +775,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,9 +807,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,6 +824,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2168,44 +2188,44 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="79"/>
-    <col min="2" max="2" width="19.77734375" style="79" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" style="79"/>
-    <col min="5" max="5" width="15.77734375" style="79" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="79"/>
-    <col min="7" max="8" width="15.5546875" style="79" customWidth="1"/>
-    <col min="9" max="16384" width="16.5546875" style="79"/>
+    <col min="1" max="1" width="16.5546875" style="77"/>
+    <col min="2" max="2" width="19.77734375" style="77" customWidth="1"/>
+    <col min="3" max="4" width="16.5546875" style="77"/>
+    <col min="5" max="5" width="15.77734375" style="77" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="77"/>
+    <col min="7" max="8" width="15.5546875" style="77" customWidth="1"/>
+    <col min="9" max="16384" width="16.5546875" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="56"/>
@@ -2221,10 +2241,10 @@
       <c r="G3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="67"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="58" t="s">
         <v>53</v>
       </c>
@@ -2240,10 +2260,10 @@
       <c r="G4" s="58">
         <v>12</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="56"/>
@@ -2259,10 +2279,10 @@
       <c r="G5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="58" t="s">
         <v>53</v>
       </c>
@@ -2278,10 +2298,10 @@
       <c r="G6" s="58">
         <v>10</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="56"/>
@@ -2295,10 +2315,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="59"/>
-      <c r="H7" s="69"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="58" t="s">
         <v>53</v>
       </c>
@@ -2312,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="G8" s="59"/>
-      <c r="H8" s="69"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="56"/>
@@ -2331,12 +2351,12 @@
       <c r="G9" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="69" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="68"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="58" t="s">
         <v>53</v>
       </c>
@@ -2352,93 +2372,107 @@
       <c r="G10" s="58">
         <v>6</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="70">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
+      <c r="B11" s="65" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="56"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57" t="s">
+      <c r="D11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>32</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="2:12" s="56" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="71"/>
+      <c r="C12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58">
+        <v>1</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:12" s="56" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="58">
-        <v>3</v>
-      </c>
-      <c r="E13" s="58">
-        <v>1</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="69"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80">
-        <v>3</v>
-      </c>
+      <c r="B13" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="2:12" s="56" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="74" t="s">
+      <c r="G14" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="2:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="75"/>
-      <c r="C15" s="76" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="76" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Facters_of_infections.xlsx
+++ b/Facters_of_infections.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\github\tmcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60974A49-C067-4D56-B328-1170A45FFC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B226C3-9767-42F1-9444-59FC63124380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="2244" windowWidth="22344" windowHeight="12708" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="384" windowWidth="22344" windowHeight="12660" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1_simpleF" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2_multiF" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="datasetA" sheetId="1" r:id="rId1"/>
+    <sheet name="A2" sheetId="2" r:id="rId2"/>
+    <sheet name="A1" sheetId="3" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" r:id="rId4"/>
+    <sheet name="datasetB" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="88">
   <si>
     <t>Inputs</t>
   </si>
@@ -277,6 +278,21 @@
   </si>
   <si>
     <t>Covid_impact</t>
+  </si>
+  <si>
+    <t>&lt;14</t>
+  </si>
+  <si>
+    <t>14 – 19</t>
+  </si>
+  <si>
+    <t>18 - 26</t>
+  </si>
+  <si>
+    <t>&gt;26</t>
+  </si>
+  <si>
+    <t>&lt;20</t>
   </si>
 </sst>
 </file>
@@ -371,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -596,11 +612,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -830,6 +875,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2187,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F27BA62-CC10-40F8-8407-76B44F1A9F7E}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2479,4 +2539,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B9022-0654-46B1-8505-A240909642C3}">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="58">
+        <v>2</v>
+      </c>
+      <c r="F4" s="58">
+        <v>3</v>
+      </c>
+      <c r="G4" s="58">
+        <v>6</v>
+      </c>
+      <c r="H4" s="85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="58">
+        <v>1</v>
+      </c>
+      <c r="E6" s="58">
+        <v>3</v>
+      </c>
+      <c r="F6" s="58">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58">
+        <v>10</v>
+      </c>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="58">
+        <v>1</v>
+      </c>
+      <c r="E8" s="58">
+        <v>3</v>
+      </c>
+      <c r="F8" s="58">
+        <v>6</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58">
+        <v>2</v>
+      </c>
+      <c r="F10" s="58">
+        <v>3</v>
+      </c>
+      <c r="G10" s="58">
+        <v>6</v>
+      </c>
+      <c r="H10" s="70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="2:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="71"/>
+      <c r="C12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58">
+        <v>1</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+    </row>
+    <row r="13" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Facters_of_infections.xlsx
+++ b/Facters_of_infections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\github\tmcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B226C3-9767-42F1-9444-59FC63124380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425BF1E-69D1-45AB-BBF0-CABB7307F3CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="384" windowWidth="22344" windowHeight="12660" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,9 +875,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2545,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35B9022-0654-46B1-8505-A240909642C3}">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2587,7 @@
       <c r="G3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="83" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2611,7 +2608,7 @@
       <c r="G4" s="58">
         <v>6</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="84">
         <v>12</v>
       </c>
     </row>
@@ -2756,8 +2753,8 @@
         <v>1</v>
       </c>
       <c r="F12" s="59"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="79" t="s">
@@ -2765,16 +2762,16 @@
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="F13" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="G13" s="63" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="81" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
